--- a/data/trans_bre/P38_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P38_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -562,22 +566,32 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>M4</t>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-17,14%</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-10,31%</t>
+          <t>-15,93%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>-7,59%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-18,49%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14,09%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 5,25</t>
+          <t>-8,89; 4,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 7,18</t>
+          <t>-7,98; 5,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 10,96</t>
+          <t>-13,91; 6,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-65,72; 93,62</t>
+          <t>-8,5; 14,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-37,69; 29,01</t>
+          <t>-68,34; 86,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,73; 143,0</t>
+          <t>-60,33; 114,79</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-50,32; 44,82</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-29,11; 91,06</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,52</t>
+          <t>7,35</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,41</t>
+          <t>7,59</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,04</t>
+          <t>8,25</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>142,49%</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>40,43%</t>
+          <t>148,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>91,24%</t>
+          <t>93,42%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>67,64%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>28,38%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,12; 13,89</t>
+          <t>1,83; 13,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 17,2</t>
+          <t>0,79; 13,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 15,45</t>
+          <t>-0,85; 16,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,66; 487,02</t>
+          <t>-8,66; 13,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 114,77</t>
+          <t>12,42; 434,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,02; 215,05</t>
+          <t>-2,58; 267,53</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-7,86; 194,16</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-37,95; 130,52</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,07</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,38</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,62</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>87,26%</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>41,83%</t>
+          <t>78,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>59,05%</t>
+          <t>40,05%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>33,7%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>20,27%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 10,89</t>
+          <t>0,45; 10,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 17,63</t>
+          <t>-0,9; 9,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 14,72</t>
+          <t>-2,84; 11,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,63; 228,42</t>
+          <t>-5,02; 10,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,93; 85,55</t>
+          <t>3,57; 210,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 132,62</t>
+          <t>-8,41; 127,62</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-16,42; 114,94</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-27,09; 97,33</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,38</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>45,95%</t>
+          <t>29,58%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>31,65%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-9,73%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 5,42</t>
+          <t>-4,23; 5,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 12,07</t>
+          <t>-1,78; 7,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 14,96</t>
+          <t>-0,94; 12,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,6; 76,21</t>
+          <t>-8,94; 5,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 45,34</t>
+          <t>-33,69; 76,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,41; 94,72</t>
+          <t>-15,22; 98,67</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-3,48; 82,85</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-35,1; 34,21</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,08</t>
+          <t>7,42</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,45</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>29,12%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>36,13%</t>
+          <t>32,99%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,42%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,39%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 11,05</t>
+          <t>-5,64; 11,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,81; 21,91</t>
+          <t>-0,49; 15,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,64; 21,27</t>
+          <t>-7,7; 13,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,76; 60,48</t>
+          <t>-7,59; 11,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,93; 55,87</t>
+          <t>-23,08; 63,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,58; 64,9</t>
+          <t>-1,95; 81,81</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-14,95; 32,66</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-17,65; 35,83</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-13,36</t>
+          <t>-10,78</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,29</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-21,31%</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-6,53%</t>
+          <t>-17,64%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>-5,95%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-3,39%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-1,04%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,26; -0,21</t>
+          <t>-21,58; 0,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 3,17</t>
+          <t>-14,23; 6,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 11,47</t>
+          <t>-13,26; 7,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,73; -1,04</t>
+          <t>-10,33; 8,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,59; 4,06</t>
+          <t>-31,88; 1,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 16,64</t>
+          <t>-20,79; 11,74</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-15,91; 11,41</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-12,54; 11,28</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,03</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,72</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>36,8%</t>
+          <t>22,95%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>15,69%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>15,23%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 5,27</t>
+          <t>-0,83; 6,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,08; 11,06</t>
+          <t>0,7; 7,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,03; 13,82</t>
+          <t>0,55; 9,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 31,47</t>
+          <t>0,49; 9,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,77; 31,83</t>
+          <t>-4,07; 37,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,07; 56,85</t>
+          <t>3,2; 42,19</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1,56; 32,16</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1,4; 31,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P38_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P38_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,47</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,67</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-4,05</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,26</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-15,93%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-7,59%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-18,49%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>14,09%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.720311152289264</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.5507641818684572</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-3.923999726445568</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.172057120864594</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.1923879725415181</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.06416523755938133</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1789012417641143</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.138188811713696</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-8,89; 4,81</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,98; 5,47</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-13,91; 6,63</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-8,5; 14,86</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-68,34; 86,9</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-60,33; 114,79</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-50,32; 44,82</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-29,11; 91,06</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-8.659911100287891</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.925537788254632</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-13.63846523446318</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-8.580098724731663</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.673051242888422</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.6161289824924873</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.4891020787236181</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2889205998961085</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.439652785322521</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.45837266312355</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.13013684931383</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>14.80543348931106</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.8597183363447818</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.124686093535574</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.4769756200920493</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.9098368495657162</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>7,35</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,59</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8,25</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,37</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>148,05%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>93,42%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>67,64%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>28,38%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 13,71</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,79; 13,9</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,85; 16,16</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-8,66; 13,33</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>12,42; 434,8</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-2,58; 267,53</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-7,86; 194,16</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-37,95; 130,52</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>7.929523628856739</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>8.033557985068631</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>8.125997626110323</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>4.589814912981913</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>1.672770652087284</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.9637191909359378</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.6651960056933776</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.3025100856351722</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>5,92</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,23</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,96</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,97</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>78,14%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>40,05%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>33,7%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>20,27%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>2.403083628196639</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1.110841626789657</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.9135578947392774</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-7.377237336329009</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.1979019992114849</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.03488373754306037</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.09072333458338787</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3615319729174269</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,45; 10,79</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,9; 9,63</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,84; 11,83</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,02; 10,52</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>3,57; 210,15</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-8,41; 127,62</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-16,42; 114,94</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-27,09; 97,33</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>14.32255743924687</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>14.63680439935287</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>16.29446446320928</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>13.56563229870251</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>4.778300623210153</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.747305828750059</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.914692340861648</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.331540516632715</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +827,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,02</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,99</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-2,1</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>6,7%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>29,58%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>31,65%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-9,73%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>6.02405106144451</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.189992266944939</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.071923357337058</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2.722953247554885</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.8473241577967153</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.3994011360739017</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.3476653988644853</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1842335485038726</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,23; 5,86</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,78; 7,68</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,94; 12,63</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-8,94; 5,55</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-33,69; 76,77</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-15,22; 98,67</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-3,48; 82,85</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-35,1; 34,21</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.9905495758593554</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.98442437810217</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.582786547096733</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-5.305839461714377</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.06862162386492109</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.09109340760109511</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.1527077537501053</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2826818469070014</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.91651529098033</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.640209974643419</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>11.77088415597351</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>10.22420699095749</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>2.177920075366656</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.254113380852102</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.151241670604594</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.946634902211257</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,41</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>7,42</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,51</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>10,7%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>32,99%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>5,42%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>2,39%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-5,64; 11,09</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,49; 15,49</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-7,7; 13,22</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-7,59; 11,9</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-23,08; 63,67</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-1,95; 81,81</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-14,95; 32,66</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-17,65; 35,83</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.06059872590648135</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.655875028578526</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>5.632862699847857</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-2.14937205977718</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.005825104594404333</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.252284968455077</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2930009504919576</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.09946584602381543</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-10,78</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-3,69</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-2,64</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,82</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-17,64%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-5,95%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-3,39%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-1,04%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-5.366681234906863</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.72443117256825</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.306792974782512</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-9.158620173764616</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.3965884428480965</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2015728652138102</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.05119512930580008</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3517540246657349</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-21,58; 0,82</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-14,23; 6,58</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-13,26; 7,89</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-10,33; 8,14</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-31,88; 1,63</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-20,79; 11,74</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-15,91; 11,41</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-12,54; 11,28</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.187850861302094</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.171166136772465</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>12.15693590447137</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.422124663383407</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.6880310368211517</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.8671316301985359</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.7956419616866016</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.3405317015642861</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1027,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>2,54</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>4,48</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>4,88</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>4,71</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>13,79%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>22,95%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>15,69%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>15,23%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>2.621619159793023</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>7.160967737073615</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2.802003001701747</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>1.176481439476385</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.1143115709306524</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.315158952643938</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.06081685403658844</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.02994577563524765</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-0,83; 6,16</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,7; 7,58</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0,55; 9,09</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 9,0</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-4,07; 37,87</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>3,2; 42,19</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 32,16</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>1,4; 31,24</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-6.027079219227274</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.7537982211923228</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-7.716042801340062</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-7.393053718441971</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.2159394367200055</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.03019279614881508</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.1509064693641634</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.1715090634510546</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>11.87433849838323</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>15.46236860061421</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>13.4947064505084</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>12.32226541928531</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.6594826091010567</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.8212936441512398</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0.3308006516076069</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0.3748052538324957</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-12.57214564259486</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-3.949970830120941</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-2.11310465153125</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-1.087303653782601</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.2026448608322389</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.06332708436455964</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>-0.02730284354623885</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>-0.01375483029940827</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-23.42304846799327</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-15.12056192978011</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-12.20129041584202</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-10.8265681686949</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.3455973762612907</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.2190633673184197</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.1470388827369702</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.1320414891361386</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>-0.2788647654754852</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>6.423466444175037</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>8.936350522361584</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>7.983007061709026</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>-0.005191699293293552</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.1144097247112492</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>0.1264738017381369</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>0.1060287143552202</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>2.218949579983792</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>4.386555296594049</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>4.974123098991195</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>4.673582204003873</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.1196461344798765</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.2234676035821305</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.1601582557556444</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.1512468879101775</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-1.189721656230636</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.5174740377699379</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.6460880295260834</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.4389487830714005</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.05946617910667461</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.01765762931954044</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>0.01581062689031291</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>0.01343023338941947</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>5.950309124061473</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>7.413059354889678</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>9.169922055115522</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>8.989406151171217</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.3540708871095635</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.4142449880857076</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.3196156173626808</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.3130176217234549</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1316,16 +1325,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
